--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H2">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N2">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q2">
-        <v>0.1503284750103334</v>
+        <v>0.1075910935506666</v>
       </c>
       <c r="R2">
-        <v>1.352956275093</v>
+        <v>0.968319841956</v>
       </c>
       <c r="S2">
-        <v>0.005691908218717003</v>
+        <v>0.005702653876576608</v>
       </c>
       <c r="T2">
-        <v>0.005691908218717003</v>
+        <v>0.005702653876576611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H3">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P3">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q3">
-        <v>0.4347083492503334</v>
+        <v>1.107389843115222</v>
       </c>
       <c r="R3">
-        <v>3.912375143253</v>
+        <v>9.966508588037</v>
       </c>
       <c r="S3">
-        <v>0.01645942344371412</v>
+        <v>0.05869501622593605</v>
       </c>
       <c r="T3">
-        <v>0.01645942344371413</v>
+        <v>0.05869501622593608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H4">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N4">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q4">
-        <v>0.123561734067</v>
+        <v>0.1141711514154444</v>
       </c>
       <c r="R4">
-        <v>1.112055606603</v>
+        <v>1.027540362739</v>
       </c>
       <c r="S4">
-        <v>0.004678435337061314</v>
+        <v>0.006051416875932151</v>
       </c>
       <c r="T4">
-        <v>0.004678435337061313</v>
+        <v>0.006051416875932155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H5">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I5">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J5">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N5">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q5">
-        <v>4.286823264987111</v>
+        <v>1.204392644581333</v>
       </c>
       <c r="R5">
-        <v>38.581409384884</v>
+        <v>10.839533801232</v>
       </c>
       <c r="S5">
-        <v>0.1623125929567912</v>
+        <v>0.06383645854763727</v>
       </c>
       <c r="T5">
-        <v>0.1623125929567912</v>
+        <v>0.06383645854763728</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -791,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H6">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I6">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J6">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,22 +812,22 @@
         <v>3.276869</v>
       </c>
       <c r="O6">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P6">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q6">
-        <v>12.39630658744044</v>
+        <v>12.39630658744045</v>
       </c>
       <c r="R6">
         <v>111.566759286964</v>
       </c>
       <c r="S6">
-        <v>0.4693631019800997</v>
+        <v>0.6570418004238362</v>
       </c>
       <c r="T6">
-        <v>0.4693631019800998</v>
+        <v>0.6570418004238364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H7">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I7">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J7">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N7">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O7">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P7">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q7">
-        <v>3.523532825196</v>
+        <v>1.278050909700889</v>
       </c>
       <c r="R7">
-        <v>31.711795426764</v>
+        <v>11.502458187308</v>
       </c>
       <c r="S7">
-        <v>0.1334120195476849</v>
+        <v>0.0677405697269528</v>
       </c>
       <c r="T7">
-        <v>0.1334120195476849</v>
+        <v>0.06774056972695282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +897,31 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H8">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I8">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J8">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N8">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O8">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P8">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q8">
-        <v>0.045151915705</v>
+        <v>0.157420202764</v>
       </c>
       <c r="R8">
-        <v>0.406367241345</v>
+        <v>1.416781824876</v>
       </c>
       <c r="S8">
-        <v>0.001709593342674706</v>
+        <v>0.008343747608819039</v>
       </c>
       <c r="T8">
-        <v>0.001709593342674706</v>
+        <v>0.008343747608819042</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +959,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H9">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I9">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J9">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +998,22 @@
         <v>3.276869</v>
       </c>
       <c r="O9">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P9">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q9">
-        <v>0.130566845305</v>
+        <v>1.620259892236333</v>
       </c>
       <c r="R9">
-        <v>1.175101607745</v>
+        <v>14.582339030127</v>
       </c>
       <c r="S9">
-        <v>0.004943670850332222</v>
+        <v>0.08587868243175667</v>
       </c>
       <c r="T9">
-        <v>0.004943670850332223</v>
+        <v>0.0858786824317567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1021,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H10">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I10">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J10">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N10">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O10">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P10">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q10">
-        <v>0.03711239005500001</v>
+        <v>0.1670477101076667</v>
       </c>
       <c r="R10">
-        <v>0.3340115104950001</v>
+        <v>1.503429390969</v>
       </c>
       <c r="S10">
-        <v>0.001405191650855005</v>
+        <v>0.008854034661987392</v>
       </c>
       <c r="T10">
-        <v>0.001405191650855005</v>
+        <v>0.008854034661987397</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1083,31 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H11">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I11">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J11">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N11">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O11">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P11">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q11">
-        <v>0.8986545094985555</v>
+        <v>0.03332286525066667</v>
       </c>
       <c r="R11">
-        <v>8.087890585487001</v>
+        <v>0.299905787256</v>
       </c>
       <c r="S11">
-        <v>0.03402588224253804</v>
+        <v>0.001766212800977491</v>
       </c>
       <c r="T11">
-        <v>0.03402588224253805</v>
+        <v>0.001766212800977492</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1145,31 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H12">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I12">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J12">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,22 +1184,22 @@
         <v>3.276869</v>
       </c>
       <c r="O12">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P12">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q12">
-        <v>2.598660156325222</v>
+        <v>0.3429782271402222</v>
       </c>
       <c r="R12">
-        <v>23.387941406927</v>
+        <v>3.086804044262</v>
       </c>
       <c r="S12">
-        <v>0.0983934354447699</v>
+        <v>0.01817888499907753</v>
       </c>
       <c r="T12">
-        <v>0.09839343544476993</v>
+        <v>0.01817888499907753</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1207,31 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H13">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I13">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J13">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N13">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O13">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P13">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q13">
-        <v>0.7386445549530001</v>
+        <v>0.03536082559044445</v>
       </c>
       <c r="R13">
-        <v>6.647800994577</v>
+        <v>0.318247430314</v>
       </c>
       <c r="S13">
-        <v>0.02796740280082364</v>
+        <v>0.001874230872440537</v>
       </c>
       <c r="T13">
-        <v>0.02796740280082365</v>
+        <v>0.001874230872440537</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1269,31 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H14">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I14">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J14">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N14">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O14">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P14">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q14">
-        <v>0.04933136855677777</v>
+        <v>0.02449090759866666</v>
       </c>
       <c r="R14">
-        <v>0.4439823170109999</v>
+        <v>0.220418168388</v>
       </c>
       <c r="S14">
-        <v>0.001867840554556147</v>
+        <v>0.001298092291372111</v>
       </c>
       <c r="T14">
-        <v>0.001867840554556147</v>
+        <v>0.001298092291372111</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1331,31 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H15">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I15">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J15">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1370,22 @@
         <v>3.276869</v>
       </c>
       <c r="O15">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P15">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q15">
-        <v>0.1426526663701111</v>
+        <v>0.2520746042112222</v>
       </c>
       <c r="R15">
-        <v>1.283873997331</v>
+        <v>2.268671437901</v>
       </c>
       <c r="S15">
-        <v>0.005401277995257495</v>
+        <v>0.01336071761567046</v>
       </c>
       <c r="T15">
-        <v>0.005401277995257496</v>
+        <v>0.01336071761567047</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1393,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H16">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I16">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J16">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,214 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N16">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O16">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P16">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q16">
-        <v>0.040547670309</v>
+        <v>0.02598872292744444</v>
       </c>
       <c r="R16">
-        <v>0.364929032781</v>
+        <v>0.233898506347</v>
       </c>
       <c r="S16">
-        <v>0.001535262150871683</v>
+        <v>0.001377481041027565</v>
       </c>
       <c r="T16">
-        <v>0.001535262150871683</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H17">
-        <v>1.372081</v>
-      </c>
-      <c r="I17">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J17">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.3777296666666667</v>
-      </c>
-      <c r="N17">
-        <v>1.133189</v>
-      </c>
-      <c r="O17">
-        <v>0.2121489992374768</v>
-      </c>
-      <c r="P17">
-        <v>0.2121489992374768</v>
-      </c>
-      <c r="Q17">
-        <v>0.1727585662565556</v>
-      </c>
-      <c r="R17">
-        <v>1.554827096309</v>
-      </c>
-      <c r="S17">
-        <v>0.006541181922199784</v>
-      </c>
-      <c r="T17">
-        <v>0.006541181922199784</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H18">
-        <v>1.372081</v>
-      </c>
-      <c r="I18">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J18">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1.092289666666667</v>
-      </c>
-      <c r="N18">
-        <v>3.276869</v>
-      </c>
-      <c r="O18">
-        <v>0.6134761976883921</v>
-      </c>
-      <c r="P18">
-        <v>0.6134761976883921</v>
-      </c>
-      <c r="Q18">
-        <v>0.4995699660432222</v>
-      </c>
-      <c r="R18">
-        <v>4.496129694389</v>
-      </c>
-      <c r="S18">
-        <v>0.01891528797421867</v>
-      </c>
-      <c r="T18">
-        <v>0.01891528797421867</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H19">
-        <v>1.372081</v>
-      </c>
-      <c r="I19">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J19">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.3104730000000001</v>
-      </c>
-      <c r="N19">
-        <v>0.9314190000000001</v>
-      </c>
-      <c r="O19">
-        <v>0.174374803074131</v>
-      </c>
-      <c r="P19">
-        <v>0.174374803074131</v>
-      </c>
-      <c r="Q19">
-        <v>0.141998034771</v>
-      </c>
-      <c r="R19">
-        <v>1.277982312939</v>
-      </c>
-      <c r="S19">
-        <v>0.005376491586834501</v>
-      </c>
-      <c r="T19">
-        <v>0.005376491586834501</v>
+        <v>0.001377481041027565</v>
       </c>
     </row>
   </sheetData>
